--- a/budget project2.xlsx
+++ b/budget project2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11008"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/smyy.karaalioglu/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{001F43BB-5D20-0A42-AB8A-5888A4757B60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{243DC8F7-C6F5-8E4D-89B1-DE1DD156FF4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="800" yWindow="500" windowWidth="24740" windowHeight="13420" activeTab="3" xr2:uid="{05BE0D15-E31E-4C91-80E7-396BF0B1E958}"/>
+    <workbookView xWindow="3320" yWindow="-20300" windowWidth="23140" windowHeight="16480" activeTab="4" xr2:uid="{05BE0D15-E31E-4C91-80E7-396BF0B1E958}"/>
   </bookViews>
   <sheets>
     <sheet name="budget project" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -2924,7 +2924,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="Sheet9!$C$1" horiz="1" max="120" min="1" page="10"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="Scroll" dx="15" fmlaLink="Sheet9!$C$1" horiz="1" max="120" min="1" page="10" val="120"/>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2947,7 +2947,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{133C32AD-5A65-44F2-17EC-D1753C13BF2F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2983,7 +2983,7 @@
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F32701F-7B2D-122D-9AF6-169C5C5DE965}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20449,7 +20449,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C94E916E-D7EA-9642-9A65-0EC379B7AF44}" name="PivotTable3" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C94E916E-D7EA-9642-9A65-0EC379B7AF44}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="B4:O22" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisCol" numFmtId="14" showAll="0">
@@ -21067,7 +21067,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21115,7 +21115,7 @@
       </c>
       <c r="C9" s="13">
         <f ca="1">C7/(EOMONTH(TODAY(),0)-TODAY()+1)</f>
-        <v>138.42857142857142</v>
+        <v>121.125</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="24" x14ac:dyDescent="0.2">
@@ -21130,7 +21130,7 @@
     <row r="14" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="str">
         <f ca="1">"You have  "  &amp;  EOMONTH( TODAY(),0)-TODAY()+1  &amp; " days until end of the month!"</f>
-        <v>You have  14 days until end of the month!</v>
+        <v>You have  16 days until end of the month!</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -21163,7 +21163,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="R29" sqref="R29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -21198,7 +21198,7 @@
       </c>
       <c r="C5" s="8">
         <f ca="1">DATE(YEAR(TODAY()),MONTH(TODAY())+TargetName,DAY(TODAY()))</f>
-        <v>45248</v>
+        <v>48898</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -21221,7 +21221,7 @@
       </c>
       <c r="C9" s="5">
         <f ca="1">(C3-C7)/(DATEDIF(TODAY(),C5,"M"))</f>
-        <v>12250</v>
+        <v>102.08333333333333</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>98</v>
@@ -21239,7 +21239,7 @@
       </c>
       <c r="C11" s="9">
         <f ca="1">'Savings Goal'!C9/'budget project'!C3</f>
-        <v>1.6105706021561925</v>
+        <v>1.3421421684634937E-2</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
@@ -21360,7 +21360,7 @@
         <v>16</v>
       </c>
       <c r="C1">
-        <v>1</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -21378,11 +21378,11 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="B2:O22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomRight" activeCell="S36" sqref="S36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -22625,8 +22625,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:B17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="S38" sqref="S38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
